--- a/.playwright-mcp/sortie-import-template.xlsx
+++ b/.playwright-mcp/sortie-import-template.xlsx
@@ -441,7 +441,7 @@
         <v>2026-01-20</v>
       </c>
       <c r="D2" t="str">
-        <v>Full Mission Capable</v>
+        <v>FMC</v>
       </c>
       <c r="E2" t="str">
         <v>Range A</v>
@@ -461,7 +461,7 @@
         <v>2026-01-21</v>
       </c>
       <c r="D3" t="str">
-        <v>Partial Mission Capable</v>
+        <v>PMC</v>
       </c>
       <c r="E3" t="str">
         <v>Range B</v>
